--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/1MB/1MB.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/1MB/1MB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(SWIB)\1MB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(Finished)\1MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2E588-A880-411E-86BA-F47EF0A68882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F1571B-DE4C-4586-8234-440A256BAC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7201,7 +7201,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7238,19 +7238,19 @@
         <v>4315.2</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>0.21576000000000001</v>
+        <f>B2*50*2/1000000</f>
+        <v>0.43152000000000001</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>9487.3934000741556</v>
+        <v>4743.6967000370778</v>
       </c>
       <c r="E2">
         <v>2047</v>
       </c>
       <c r="G2" s="1">
         <f>FLOOR(D2,1)</f>
-        <v>9487</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7261,19 +7261,19 @@
         <v>4358.2</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.21790999999999999</v>
+        <f t="shared" ref="C3:C11" si="0">B3*50*2/1000000</f>
+        <v>0.43581999999999999</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>9393.7864255885452</v>
+        <v>4696.8932127942726</v>
       </c>
       <c r="E3">
         <v>2047</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>9393</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7285,18 +7285,18 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.22696999999999998</v>
+        <v>0.45393999999999995</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>9018.8130589945813</v>
+        <v>4509.4065294972906</v>
       </c>
       <c r="E4">
         <v>2047</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>9018</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7308,18 +7308,18 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.23363500000000001</v>
+        <v>0.46727000000000002</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>8761.5297365548831</v>
+        <v>4380.7648682774416</v>
       </c>
       <c r="E5">
         <v>2047</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>8761</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7331,18 +7331,18 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.24779000000000001</v>
+        <v>0.49558000000000002</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>8261.0274829492719</v>
+        <v>4130.5137414746359</v>
       </c>
       <c r="E6">
         <v>2047</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>8261</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7354,18 +7354,18 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.27316000000000001</v>
+        <v>0.54632000000000003</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>7493.7765412212621</v>
+        <v>3746.888270610631</v>
       </c>
       <c r="E7">
         <v>2047</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>7493</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7377,18 +7377,18 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.29745500000000002</v>
+        <v>0.59491000000000005</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>6881.7132003160132</v>
+        <v>3440.8566001580066</v>
       </c>
       <c r="E8">
         <v>2047</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>6881</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7400,18 +7400,18 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.35206999999999999</v>
+        <v>0.70413999999999999</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>5814.1846791831167</v>
+        <v>2907.0923395915584</v>
       </c>
       <c r="E9">
         <v>2047</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>5814</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7423,18 +7423,18 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.45021499999999992</v>
+        <v>0.90042999999999984</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>4546.7165687504867</v>
+        <v>2273.3582843752433</v>
       </c>
       <c r="E10">
         <v>2047</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>4546</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7446,18 +7446,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.56476000000000004</v>
+        <v>1.1295200000000001</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>3624.5484807705925</v>
+        <v>1812.2742403852963</v>
       </c>
       <c r="E11">
         <v>2047</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>3624</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
